--- a/Excels/BulkUploadTemplate.xlsx
+++ b/Excels/BulkUploadTemplate.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Airtel\cs-sr-web\cs-web\src\assets\service-request\"/>
     </mc:Choice>
@@ -16,7 +16,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,15 +24,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="3">
   <si>
     <t>Ticket Id</t>
+  </si>
+  <si>
+    <t>061020001891</t>
+  </si>
+  <si>
+    <t>061020001892</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -375,7 +382,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -383,7 +390,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -391,6 +398,16 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Excels/BulkUploadTemplate.xlsx
+++ b/Excels/BulkUploadTemplate.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Ticket Id</t>
   </si>
@@ -45,6 +45,12 @@
   </si>
   <si>
     <t>210321000129</t>
+  </si>
+  <si>
+    <t>210321000131</t>
+  </si>
+  <si>
+    <t>210321000132</t>
   </si>
 </sst>
 </file>
@@ -412,12 +418,12 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
